--- a/docs/PTA2_DDC_60/PTA1_R6_BDDC_19.08.2024_output.xlsx
+++ b/docs/PTA2_DDC_60/PTA1_R6_BDDC_19.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K122"/>
+  <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,4249 +505,5039 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731413211.7201746</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731413212.1241128</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731413211.7201746.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731413212.1241128.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>274.54</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>273.92</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.6200000000000045</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731413212.8148134</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731413216.1765535</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731413212.8148134.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731413216.1765535.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>273.25</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>271.5</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-1.75</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731413218.3431222</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731413221.2315803</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731413218.3431222.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731413221.2315803.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>270.7</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>270.21</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.4900000000000091</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731413221.8122363</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731413223.3774564</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731413221.8122363.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731413223.3774564.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>270.74</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>270.09</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.6500000000000341</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731413223.7593117</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731413224.505205</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731413223.7593117.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731413224.505205.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>270.03</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>270.36</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.3300000000000409</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731413225.796849</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731413226.0904179</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731413225.796849.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731413226.0904179.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>274.54</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>273.92</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.6200000000000045</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731413226.6525173</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731413229.527392</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731413226.6525173.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731413229.527392.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>273.25</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>271.5</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-1.75</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731413231.2905717</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731413233.588912</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731413231.2905717.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731413233.588912.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>270.7</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>270.21</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.4900000000000091</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731413233.9884138</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731413235.1994596</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731413233.9884138.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731413235.1994596.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>270.74</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>270.09</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.6500000000000341</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731413235.4932644</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731413236.1243963</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731413235.4932644.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731413236.1243963.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>270.03</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>270.36</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.3300000000000409</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731413238.6147342</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731413242.2105513</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731413238.6147342.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731413242.2105513.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>273.77</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>271.81</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-1.95999999999998</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731413244.5988905</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731413245.3211522</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731413244.5988905.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731413245.3211522.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>271.07</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>271.26</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731413245.8571112</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731413247.4695086</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731413245.8571112.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731413247.4695086.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>270.2</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>270.37</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.1700000000000159</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731413247.9449277</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731413249.3581328</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731413247.9449277.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731413249.3581328.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>271.03</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>270.71</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.3199999999999932</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731413249.7394617</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731413250.270901</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731413249.7394617.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731413250.270901.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>270.51</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>270.87</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.3600000000000136</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731413251.812352</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731413252.3107982</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731413251.812352.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731413252.3107982.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>127.62</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>127.11</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.5100000000000051</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731413253.1798406</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731413255.1520379</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731413253.1798406.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731413255.1520379.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>126.57</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>126.79</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.2200000000000131</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731413255.813093</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731413256.51926</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731413255.813093.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731413256.51926.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>126.23</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>126.36</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.1299999999999955</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731413258.9084325</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731413259.2702749</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731413258.9084325.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731413259.2702749.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>126.41</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>126.05</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.3599999999999994</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731413259.3644104</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731413260.2054348</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731413259.3644104.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731413260.2054348.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>125.78</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>126</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731413262.463032</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731413262.5088217</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731413262.463032.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731413262.5088217.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>125.49</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>125.69</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.2000000000000028</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731413263.122837</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731413264.8948205</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731413263.122837.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731413264.8948205.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>126</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>126.21</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.2099999999999937</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731413266.1574152</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731413266.1574152.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731413266.1574152.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>126.81</v>
       </c>
-      <c r="J25" t="n">
-        <v>126.81</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
+      <c r="L25" t="n">
+        <v>126.88</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-0.06999999999999318</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731413266.772006</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731413267.6248581</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731413266.772006.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731413267.6248581.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>6269.5</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>6263</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>6.5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731413268.4171438</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731413271.9689825</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731413268.4171438.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731413271.9689825.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>6242.5</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>6204</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-38.5</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.62</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731413272.6192782</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731413273.9360156</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731413272.6192782.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731413273.9360156.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>6210</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>6190.5</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>19.5</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731413274.2121015</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731413275.855599</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731413274.2121015.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731413275.855599.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>6184.5</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>6194</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>9.5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731413276.201565</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731413276.9745216</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731413276.201565.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731413276.9745216.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>6181.5</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>6190</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>8.5</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731413277.0427384</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731413277.358508</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731413277.0427384.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731413277.358508.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>6200</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>6187.5</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>12.5</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731413277.5678248</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731413278.3210058</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731413277.5678248.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731413278.3210058.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>6206.5</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>6198</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>8.5</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731413279.2396717</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731413279.9414551</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731413279.2396717.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731413279.9414551.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>6186.5</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>6196</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>9.5</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731413280.0204225</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731413280.0204225.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731413280.0204225.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>6182</v>
       </c>
-      <c r="J34" t="n">
-        <v>6182</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
+      <c r="L34" t="n">
+        <v>6187.5</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731413281.065969</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731413283.1251793</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731413281.065969.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731413283.1251793.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>490.9</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>491.4</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731413283.6724236</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731413286.109652</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731413283.6724236.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731413286.109652.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>491.15</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>488.65</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-2.5</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.51</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731413287.103105</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731413287.1978304</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731413287.103105.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731413287.1978304.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>486.45</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>487.8</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>1.350000000000023</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731413291.0336351</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731413291.8583138</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731413291.0336351.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731413291.8583138.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>488.2</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>487.45</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.75</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731413292.5063307</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731413293.139624</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731413292.5063307.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731413293.139624.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>488.9</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>488.15</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.75</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731413294.824458</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731413294.824458.png</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731413294.824458.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>487.55</v>
       </c>
-      <c r="J40" t="n">
-        <v>487.55</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
+      <c r="L40" t="n">
+        <v>488.15</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.5999999999999659</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731413296.7182555</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731413300.974141</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731413296.7182555.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731413300.974141.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>219.52</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>215.59</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-3.930000000000007</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-1.79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731413301.7392962</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731413301.9839656</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731413301.7392962.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731413301.9839656.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>213.74</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>214.77</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>1.030000000000001</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731413304.0716472</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731413305.9086323</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731413304.0716472.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731413305.9086323.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>213.56</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>213.8</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731413306.1260903</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731413306.2635355</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731413306.1260903.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731413306.2635355.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>214.11</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>213.22</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.8900000000000148</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731413306.5745497</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731413306.5745497.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731413306.5745497.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>214.22</v>
       </c>
-      <c r="J45" t="n">
-        <v>214.22</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
+      <c r="L45" t="n">
+        <v>215.28</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-1.060000000000002</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731413310.0986736</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731413311.8799238</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731413310.0986736.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731413311.8799238.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>1016.4</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>1015.8</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.6000000000000227</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731413312.2061658</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731413312.9638674</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731413312.2061658.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731413312.9638674.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>1015.6</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>1017.6</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>2</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731413313.8241053</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731413315.3265872</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731413313.8241053.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731413315.3265872.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>1011.8</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>1013.8</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>2</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731413315.6827078</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731413317.3144875</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731413315.6827078.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731413317.3144875.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>1017.8</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>1016</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>1.799999999999955</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731413317.5108006</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731413318.8018217</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731413317.5108006.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731413318.8018217.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>1014.2</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>1015.8</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>1.599999999999909</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731413319.118303</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731413319.2795765</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731413319.118303.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731413319.2795765.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>1013</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>1015.2</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>2.200000000000045</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731413320.2275622</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731413320.690183</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731413320.2275622.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731413320.690183.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>1013.2</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>1015.6</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>2.399999999999977</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731413320.8542101</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731413323.4907506</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731413320.8542101.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731413323.4907506.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>1017.6</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>1019.4</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-1.799999999999955</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731413324.1989608</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731413324.8530204</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731413324.1989608.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731413324.8530204.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>1023.2</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>1020.4</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>2.800000000000068</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731413326.1047642</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731413327.0660264</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/CNY1731413326.1047642.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/CNY1731413327.0660264.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>12.16</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>12.165</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.004999999999999005</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731413329.191977</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731413329.7761588</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/CNY1731413329.191977.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/CNY1731413329.7761588.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>12.182</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>12.175</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.006999999999999673</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731413330.5081015</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731413330.7120848</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/CNY1731413330.5081015.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/CNY1731413330.7120848.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>12.188</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>12.179</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.009000000000000341</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731413333.3883677</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731413333.5386405</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/CNY1731413333.3883677.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/CNY1731413333.5386405.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>12.171</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>12.182</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.01100000000000101</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731413334.058377</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731413334.6049314</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/CNY1731413334.058377.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/CNY1731413334.6049314.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>12.165</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>12.173</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.008000000000000895</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731413335.4663131</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731413337.8597286</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/CNY1731413335.4663131.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/CNY1731413337.8597286.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>12.156</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>12.142</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.01400000000000112</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731413339.6046727</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731413341.419499</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731413339.6046727.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731413341.419499.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>126.8</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>126.6</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.2000000000000028</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731413341.7439518</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731413345.0143092</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731413341.7439518.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731413345.0143092.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>126.46</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>125.76</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.6999999999999886</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.5499999999999999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731413346.5502028</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731413348.5759456</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731413346.5502028.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731413348.5759456.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>125.26</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>124.6</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.6600000000000108</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.53</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731413349.6175575</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731413349.7855496</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731413349.6175575.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731413349.7855496.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>124.16</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>124.58</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.4200000000000017</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731413349.8963497</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731413349.8963497.png</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731413349.8963497.png</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>124.94</v>
       </c>
-      <c r="J65" t="n">
-        <v>124.94</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
+      <c r="L65" t="n">
+        <v>126.7</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-1.760000000000005</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-1.41</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731413353.9669664</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731413355.2266233</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731413353.9669664.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731413355.2266233.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>161.98</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>161.64</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.3400000000000034</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731413356.263932</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731413359.0213912</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731413356.263932.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731413359.0213912.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>160.76</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>160.28</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.4799999999999898</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731413359.969792</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731413360.462028</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731413359.969792.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731413360.462028.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>160.02</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>160.38</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.3599999999999852</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731413360.7493777</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731413364.0624096</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731413360.7493777.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731413364.0624096.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>160</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>159</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-1</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.62</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731413366.0296063</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731413366.3389435</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731413366.0296063.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731413366.3389435.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>158.58</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>159.02</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.4399999999999977</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731413367.5177639</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731413367.6311312</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731413367.5177639.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731413367.6311312.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>49.45</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>49.645</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.1950000000000003</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731413368.214598</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731413368.9745219</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731413368.214598.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731413368.9745219.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>49.725</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>49.6</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.125</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731413371.2198565</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731413376.2090163</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731413371.2198565.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731413376.2090163.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>49.31</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>49.065</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-0.2450000000000045</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731413376.4848845</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731413376.6745183</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731413376.4848845.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731413376.6745183.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>49.1</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>49.05</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.05000000000000426</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731413377.036698</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731413378.4507382</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731413377.036698.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731413378.4507382.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>49</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>48.92</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>-0.07999999999999829</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731413380.3293211</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731413380.3293211.png</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731413380.3293211.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>48.775</v>
       </c>
-      <c r="J76" t="n">
-        <v>48.775</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
+      <c r="L76" t="n">
+        <v>48.65</v>
+      </c>
+      <c r="M76" t="n">
+        <v>-0.125</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731413382.1444151</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731413382.3917034</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731413382.1444151.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731413382.3917034.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>1378.8</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>1374.2</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>4.599999999999909</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731413382.5563183</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731413383.1019542</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731413382.5563183.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731413383.1019542.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>1379.6</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>1376.2</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>3.399999999999864</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731413383.905785</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731413387.4452662</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731413383.905785.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731413387.4452662.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>1371.4</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>1362.8</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>-8.600000000000136</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-0.63</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731413387.9840035</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731413389.5983074</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731413387.9840035.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731413389.5983074.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>1363.8</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>1362.2</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>1.599999999999909</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731413389.6142366</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731413392.393304</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731413389.6142366.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731413392.393304.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>1362.2</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>1355.4</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>-6.799999999999955</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731413392.713039</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731413393.4371989</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731413392.713039.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731413393.4371989.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>1352</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>1354.6</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>2.599999999999909</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731413394.330104</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731413394.330104.png</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731413394.330104.png</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>1350.6</v>
       </c>
-      <c r="J83" t="n">
-        <v>1350.6</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
+      <c r="L83" t="n">
+        <v>1351.2</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.6000000000001364</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731413396.8737812</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731413398.2824275</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731413396.8737812.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731413398.2824275.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>57.95</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>57.9</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.05000000000000426</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731413398.785943</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731413399.927099</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731413398.785943.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731413399.927099.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>57.82</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>57.93</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731413401.1115925</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731413401.9783607</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731413401.1115925.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731413401.9783607.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>57.75</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>57.79</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0.03999999999999915</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731413404.1009889</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731413404.8388915</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731413404.1009889.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731413404.8388915.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>57.68</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>57.79</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731413406.303036</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731413406.4466288</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731413406.303036.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731413406.4466288.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>57.6</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>57.69</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.08999999999999631</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731413407.3378713</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731413409.5469563</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731413407.3378713.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731413409.5469563.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>57.79</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>57.79</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4740,1569 +5545,1866 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731413410.057444</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731413410.057444.png</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731413410.057444.png</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>57.75</v>
       </c>
-      <c r="J90" t="n">
-        <v>57.75</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0</v>
+      <c r="L90" t="n">
+        <v>57.64</v>
+      </c>
+      <c r="M90" t="n">
+        <v>-0.1099999999999994</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731413411.820844</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731413413.3924499</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731413411.820844.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731413413.3924499.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>98.04000000000001</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>98.19</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>-0.1499999999999915</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731413413.9088986</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731413416.855379</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731413413.9088986.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731413416.855379.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>97.89</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>97.8</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>-0.09000000000000341</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731413417.4634612</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731413418.770788</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731413417.4634612.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731413418.770788.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>98</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>97.79000000000001</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>0.2099999999999937</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731413419.0992954</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731413419.775731</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731413419.0992954.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731413419.775731.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>97.58</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>97.86</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731413420.876915</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731413421.38531</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731413420.876915.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731413421.38531.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>97.95</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>97.73</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731413421.7693205</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731413422.1782858</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731413421.7693205.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731413422.1782858.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>97.53</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>97.81</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731413422.3262918</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731413422.3262918.png</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731413422.3262918.png</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>97.93000000000001</v>
       </c>
-      <c r="J97" t="n">
-        <v>97.93000000000001</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0</v>
+      <c r="L97" t="n">
+        <v>98.84</v>
+      </c>
+      <c r="M97" t="n">
+        <v>-0.9099999999999966</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-0.9299999999999999</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731413427.3340693</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731413427.783747</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/SELG1731413427.3340693.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/SELG1731413427.783747.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>55.07</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>54.79</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731413428.4422216</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731413431.8532255</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/SELG1731413428.4422216.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/SELG1731413431.8532255.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>54.7</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>54.41</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>-0.2900000000000063</v>
+      </c>
+      <c r="N99" t="n">
+        <v>-0.53</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731413434.9780953</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731413439.3121037</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/SELG1731413434.9780953.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/SELG1731413439.3121037.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>54.1</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>53.88</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>-0.2199999999999989</v>
+      </c>
+      <c r="N100" t="n">
+        <v>-0.41</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731413440.07025</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1731413441.5203824</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731413440.07025.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731413441.5203824.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>151.68</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>151.54</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>0.1400000000000148</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731413442.4251306</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1731413445.4930182</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731413442.4251306.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731413445.4930182.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>151.04</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>150.8</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>-0.2399999999999807</v>
+      </c>
+      <c r="N102" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1731413446.1651304</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1731413448.458061</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731413446.1651304.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731413448.458061.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>150.24</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>149.98</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>-0.2600000000000193</v>
+      </c>
+      <c r="N103" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1731413448.779776</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731413448.779776.png</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731413448.779776.png</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>150.34</v>
       </c>
-      <c r="J104" t="n">
-        <v>150.34</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0</v>
+      <c r="L104" t="n">
+        <v>150.52</v>
+      </c>
+      <c r="M104" t="n">
+        <v>-0.1800000000000068</v>
+      </c>
+      <c r="N104" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1731413455.3207002</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>1731413455.5721285</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731413455.3207002.png</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731413455.5721285.png</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>0.3009</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>0.303</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>0.002099999999999991</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>1731413460.0252004</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731413460.0252004.png</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731413460.0252004.png</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
         <v>0.3031</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.3031</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0</v>
+      <c r="L106" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="M106" t="n">
+        <v>9.999999999998899e-05</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>1731413463.36833</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>1731413463.9520233</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731413463.36833.png</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731413463.9520233.png</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
         <v>19.646</v>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>19.707</v>
       </c>
-      <c r="K107" t="n">
+      <c r="M107" t="n">
         <v>0.06099999999999994</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>1731413465.3681486</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>1731413468.0940537</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731413465.3681486.png</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731413468.0940537.png</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
         <v>19.582</v>
       </c>
-      <c r="J108" t="n">
+      <c r="L108" t="n">
         <v>19.462</v>
       </c>
-      <c r="K108" t="n">
+      <c r="M108" t="n">
         <v>-0.120000000000001</v>
+      </c>
+      <c r="N108" t="n">
+        <v>-0.61</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>1731413469.3610775</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>1731413470.095247</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731413469.3610775.png</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731413470.095247.png</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
         <v>19.514</v>
       </c>
-      <c r="J109" t="n">
+      <c r="L109" t="n">
         <v>19.421</v>
       </c>
-      <c r="K109" t="n">
+      <c r="M109" t="n">
         <v>0.09299999999999997</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>1731413470.2675455</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>1731413470.7182744</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731413470.2675455.png</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731413470.7182744.png</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
         <v>19.53</v>
       </c>
-      <c r="J110" t="n">
+      <c r="L110" t="n">
         <v>19.458</v>
       </c>
-      <c r="K110" t="n">
+      <c r="M110" t="n">
         <v>0.07200000000000273</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>1731413471.1207352</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>1731413474.1751282</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731413471.1207352.png</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731413474.1751282.png</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
         <v>19.382</v>
       </c>
-      <c r="J111" t="n">
+      <c r="L111" t="n">
         <v>19.334</v>
       </c>
-      <c r="K111" t="n">
+      <c r="M111" t="n">
         <v>-0.04800000000000182</v>
+      </c>
+      <c r="N111" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>1731413476.144432</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>1731413476.4987526</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731413476.144432.png</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731413476.4987526.png</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
         <v>19.317</v>
       </c>
-      <c r="J112" t="n">
+      <c r="L112" t="n">
         <v>19.237</v>
       </c>
-      <c r="K112" t="n">
+      <c r="M112" t="n">
         <v>0.08000000000000185</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>1731413477.0601285</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731413477.0601285.png</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731413477.0601285.png</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
         <v>19.182</v>
       </c>
-      <c r="J113" t="n">
-        <v>19.182</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0</v>
+      <c r="L113" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.02800000000000225</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>1731413480.2290514</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>1731413481.2212975</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731413480.2290514.png</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731413481.2212975.png</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
         <v>667.95</v>
       </c>
-      <c r="J114" t="n">
+      <c r="L114" t="n">
         <v>667.65</v>
       </c>
-      <c r="K114" t="n">
+      <c r="M114" t="n">
         <v>-0.3000000000000682</v>
+      </c>
+      <c r="N114" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>1731413481.8305964</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>1731413483.0619197</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731413481.8305964.png</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731413483.0619197.png</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
         <v>664.35</v>
       </c>
-      <c r="J115" t="n">
+      <c r="L115" t="n">
         <v>665.55</v>
       </c>
-      <c r="K115" t="n">
+      <c r="M115" t="n">
         <v>1.199999999999932</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>1731413483.3585854</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>1731413485.1060338</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731413483.3585854.png</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731413485.1060338.png</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
         <v>668.15</v>
       </c>
-      <c r="J116" t="n">
+      <c r="L116" t="n">
         <v>666.95</v>
       </c>
-      <c r="K116" t="n">
+      <c r="M116" t="n">
         <v>1.199999999999932</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" t="n">
+        <v>115</v>
+      </c>
+      <c r="D117" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>1731413485.4328449</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>1731413487.2094452</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731413485.4328449.png</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731413487.2094452.png</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I117" t="n">
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
         <v>666.8</v>
       </c>
-      <c r="J117" t="n">
+      <c r="L117" t="n">
         <v>665.65</v>
       </c>
-      <c r="K117" t="n">
+      <c r="M117" t="n">
         <v>-1.149999999999977</v>
+      </c>
+      <c r="N117" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" t="n">
+        <v>116</v>
+      </c>
+      <c r="D118" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>1731413487.6346855</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>1731413489.271073</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731413487.6346855.png</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731413489.271073.png</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I118" t="n">
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
         <v>666.85</v>
       </c>
-      <c r="J118" t="n">
+      <c r="L118" t="n">
         <v>668.7</v>
       </c>
-      <c r="K118" t="n">
+      <c r="M118" t="n">
         <v>-1.850000000000023</v>
+      </c>
+      <c r="N118" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" t="n">
+        <v>117</v>
+      </c>
+      <c r="C119" t="n">
+        <v>117</v>
+      </c>
+      <c r="D119" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>1731413491.6190722</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>1731413492.1340032</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731413491.6190722.png</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731413492.1340032.png</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="I119" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
         <v>148.55</v>
       </c>
-      <c r="J119" t="n">
+      <c r="L119" t="n">
         <v>148.19</v>
       </c>
-      <c r="K119" t="n">
+      <c r="M119" t="n">
         <v>0.3600000000000136</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" t="n">
+        <v>118</v>
+      </c>
+      <c r="C120" t="n">
+        <v>118</v>
+      </c>
+      <c r="D120" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>1731413492.4697194</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>1731413495.4674437</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731413492.4697194.png</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731413495.4674437.png</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
         <v>147.37</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>145.82</v>
       </c>
-      <c r="K120" t="n">
+      <c r="M120" t="n">
         <v>-1.550000000000011</v>
+      </c>
+      <c r="N120" t="n">
+        <v>-1.05</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" t="n">
+        <v>119</v>
+      </c>
+      <c r="C121" t="n">
+        <v>119</v>
+      </c>
+      <c r="D121" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>1731413496.5078218</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>1731413497.1678011</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731413496.5078218.png</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731413497.1678011.png</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I121" t="n">
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
         <v>146.25</v>
       </c>
-      <c r="J121" t="n">
+      <c r="L121" t="n">
         <v>145.71</v>
       </c>
-      <c r="K121" t="n">
+      <c r="M121" t="n">
         <v>0.539999999999992</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" t="n">
+        <v>120</v>
+      </c>
+      <c r="C122" t="n">
+        <v>120</v>
+      </c>
+      <c r="D122" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>1731413498.2648084</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731413498.2648084.png</t>
         </is>
       </c>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731413498.2648084.png</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I122" t="n">
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
         <v>145.61</v>
       </c>
-      <c r="J122" t="n">
-        <v>145.61</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0</v>
+      <c r="L122" t="n">
+        <v>143.16</v>
+      </c>
+      <c r="M122" t="n">
+        <v>-2.450000000000017</v>
+      </c>
+      <c r="N122" t="n">
+        <v>-1.68</v>
       </c>
     </row>
   </sheetData>
@@ -6316,7 +7418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6345,6 +7447,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -6361,6 +7473,12 @@
       <c r="D2" t="n">
         <v>-0.1559999999999889</v>
       </c>
+      <c r="E2" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -6377,6 +7495,12 @@
       <c r="D3" t="n">
         <v>1.511111111111114</v>
       </c>
+      <c r="E3" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -6385,13 +7509,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36</v>
+        <v>41.5</v>
       </c>
       <c r="C4" t="n">
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>4.611111111111111</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6599999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -6401,13 +7531,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.430000000000021</v>
+        <v>1.360000000000028</v>
       </c>
       <c r="C5" t="n">
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1787500000000026</v>
+        <v>0.1700000000000035</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="6">
@@ -6417,13 +7553,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1380000000000017</v>
+        <v>0.1660000000000039</v>
       </c>
       <c r="C6" t="n">
         <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01971428571428595</v>
+        <v>0.02371428571428627</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="7">
@@ -6433,13 +7575,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.2000000000005</v>
+        <v>-2.600000000000364</v>
       </c>
       <c r="C7" t="n">
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4571428571429286</v>
+        <v>-0.3714285714286234</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="8">
@@ -6449,13 +7597,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.75</v>
+        <v>-0.1599999999999966</v>
       </c>
       <c r="C8" t="n">
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1071428571428571</v>
+        <v>-0.02285714285714237</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="9">
@@ -6465,13 +7619,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3999999999999986</v>
+        <v>0.2899999999999991</v>
       </c>
       <c r="C9" t="n">
         <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05714285714285694</v>
+        <v>0.04142857142857131</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -6489,6 +7649,12 @@
       <c r="D10" t="n">
         <v>0.0043333333333333</v>
       </c>
+      <c r="E10" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -6497,13 +7663,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04500000000000171</v>
+        <v>-0.07999999999999829</v>
       </c>
       <c r="C11" t="n">
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>0.007500000000000284</v>
+        <v>-0.01333333333333305</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="12">
@@ -6513,13 +7685,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1499999999999773</v>
+        <v>0.4499999999999886</v>
       </c>
       <c r="C12" t="n">
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.02499999999999621</v>
+        <v>0.07499999999999811</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="13">
@@ -6537,6 +7715,12 @@
       <c r="D13" t="n">
         <v>-0.1279999999999859</v>
       </c>
+      <c r="E13" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -6545,13 +7729,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.769999999999982</v>
+        <v>-2.829999999999984</v>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3539999999999964</v>
+        <v>-0.5659999999999968</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-1.27</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="15">
@@ -6569,6 +7759,12 @@
       <c r="D15" t="n">
         <v>-0.06800000000000068</v>
       </c>
+      <c r="E15" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -6585,6 +7781,12 @@
       <c r="D16" t="n">
         <v>-0.1800000000000409</v>
       </c>
+      <c r="E16" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -6593,13 +7795,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.7399999999999949</v>
+        <v>-2.5</v>
       </c>
       <c r="C17" t="n">
         <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.147999999999999</v>
+        <v>-0.5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="18">
@@ -6609,13 +7817,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.3599999999999852</v>
+        <v>-0.539999999999992</v>
       </c>
       <c r="C18" t="n">
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.08999999999999631</v>
+        <v>-0.134999999999998</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="19">
@@ -6625,13 +7839,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.6500000000000057</v>
+        <v>-3.100000000000023</v>
       </c>
       <c r="C19" t="n">
         <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1625000000000014</v>
+        <v>-0.7750000000000057</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-2.12</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.53</v>
       </c>
     </row>
     <row r="20">
@@ -6649,6 +7869,12 @@
       <c r="D20" t="n">
         <v>-0.07666666666666799</v>
       </c>
+      <c r="E20" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -6657,13 +7883,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.002099999999999991</v>
+        <v>0.00219999999999998</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001049999999999995</v>
+        <v>0.00109999999999999</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.7300000000000001</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="22">
@@ -6679,6 +7911,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
